--- a/biology/Neurosciences/Kyste_de_Tarlov/Kyste_de_Tarlov.xlsx
+++ b/biology/Neurosciences/Kyste_de_Tarlov/Kyste_de_Tarlov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un kyste de Tarlov (KT) ou kyste périneural, est une dilatation locale de l'espace sous-arachnoïdien se formant au contact d'une racine nerveuse, le plus souvent sacrée, dans la zone de transition entre  arachnoïde et  périnèvre (membrane externe du nerf). Il est fréquent et le plus souvent asymptomatique, mais peut parfois causer des symptômes neurologiques : on parle alors de maladie de Tarlov.
-On doit sa première description, en 1938, au neurochirurgien américain Isadore Tarlov (1905-1970)[1].
+On doit sa première description, en 1938, au neurochirurgien américain Isadore Tarlov (1905-1970).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cavité kystique correspond à une prolongation de l'espace sous-arachnoïdien entre l'endonèvre et le périnèvre. Dans la classification de Nabors (1988) les KT correspondent à des kystes de type II[2]. Génétiquement, ils sont rattachés à la famille des défauts du tube neural[3],[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cavité kystique correspond à une prolongation de l'espace sous-arachnoïdien entre l'endonèvre et le périnèvre. Dans la classification de Nabors (1988) les KT correspondent à des kystes de type II. Génétiquement, ils sont rattachés à la famille des défauts du tube neural,. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le kyste de Tarlov est le plus souvent asymptomatique et découvert fortuitement lors du bilan d'imagerie d'une lombosciatique[5]. Cependant le kyste en lui-même peut être une cause de sciatique, voire lorsqu'il est situé au niveau sacré de troubles vésicosphinctériens (mictions impérieuses, dysesthésie anale...)[5]. Chez la femme, le kyste de Tarlov peut être la cause d'un syndrome d'excitation génitale persistante[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le kyste de Tarlov est le plus souvent asymptomatique et découvert fortuitement lors du bilan d'imagerie d'une lombosciatique. Cependant le kyste en lui-même peut être une cause de sciatique, voire lorsqu'il est situé au niveau sacré de troubles vésicosphinctériens (mictions impérieuses, dysesthésie anale...). Chez la femme, le kyste de Tarlov peut être la cause d'un syndrome d'excitation génitale persistante. 
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,9 +618,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge d'un kyste de Tarlov responsable de sciatique ne diffère pas de celle d'une sciatique classique. En cas d'échec du traitement médical, on propose une libération chirurgicale de la racine comprimée[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La prise en charge d'un kyste de Tarlov responsable de sciatique ne diffère pas de celle d'une sciatique classique. En cas d'échec du traitement médical, on propose une libération chirurgicale de la racine comprimée.
 La maladie étant rare, peu de praticiens savent la diagnostiquer et proposer une prise en charge adaptée. Le centre de référence en France pour  cette pathologie est l'hôpital Louis Pasteur de Colmar, où les neurochirurgiens traitent avec succès des malades en nombre significatif. 
 La communauté médicale est très divisée sur la façon de traiter ces problèmes (ceci signifie donc qu'il n'existe pas de traitement optimal). En raison de la pathogenèse claire et physiopathologie des kystes de Tarlov, il n'existe pas de consensus sur le traitement optimal des kystes péri-neuraux sacrés symptomatiques.
 Il y a quelques traitements disponibles pour soulager les symptômes causés par ces kystes, mais leur efficacité est discutable.
@@ -617,9 +637,43 @@
 On vide le kyste et on met un peu de colle biologique à l'intérieur afin de décompresser légèrement le kyste par rétractation et diminuer ainsi la pression sur les racines nerveuses. Parfois, la méthode échoue car le kyste est trop important et la colle ne tient pas du fait que le liquide cérébrospinal (LCS) continue d'arriver sous pression, dissolvant le colmatage. Mais de nouvelles techniques dites à double aiguille — une pour enlever le liquide, l'autre pour introduire la colle, fabriquée à partir d'éléments du plasma sanguin pour éviter les rejets — semblent prometteuses[réf. souhaitée].
 Extraction du kyste : marsupialisation (en) du kyste avec élargissement du canal lombaire et plastie des racines sacrées pour éviter un trapage ultérieur. Les suites postopératoires sont notamment marquées par :
 fuite de liquide cérébrospinal (LCS) (qui peut être symptomatique),
-méningite.
-Indications chirurgicales et options de traitement
-Les kystes méningés spinaux ont été classés par Nabors et al. en trois types :
+méningite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kyste_de_Tarlov</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kyste_de_Tarlov</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Indications chirurgicales et options de traitement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les kystes méningés spinaux ont été classés par Nabors et al. en trois types :
 type I : kystes méningés extraduraux sans implication de fibre de la moelle ni des racine nerveuse ;
 type II : kystes méningés extraduraux avec la colonne vertébrale et fibres nerveuses profondes ;
 type III : kystes méningés intraduraux (moelle spinale).
@@ -646,8 +700,43 @@
 Plusieurs hypothèses ont été proposées pour expliquer l'étiologie des kystes périneuraux (Tarlov) dans la région sacrée. Les plus importantes comprennent l'inflammation des racines nerveuses des kystes suivis par inoculation de fluide, la prolifération arachnoïdienne le long et autour de la racine sacrée du nerf, bris de drainage veineux dans le périnèvre et épinèvre secondaire au dépôt d'hémosidérine après un traumatisme, et l'origine du développement ou congénitale. Certains auteurs ont rapporté un taux d'association de 40 % à un traumatisme. La présence de fibres nerveuses, les cellules ganglionnaires, ou des signes d'anciennes microhémorragies sous la forme d'hémosidérine a été liée au fait que les kystes de Tarlov peuvent se trouver à différents stades d'évolution. 
 Un petit pourcentage de ces lésions peut être symptomatique. Des précautions méticuleuses doivent être prises pour définir clairement les symptômes du patient ainsi qu'une corrélation aux résultats radiologiques. La déclaration de Tarlov dans son article fondateur il y a plus de 70 ans, semble être encore vraie aujourd'hui : « La signification clinique de ces kystes reste à déterminer. »
 Les résultats rapportés dans la littérature sur le traitement chirurgical des symptômes des kystes de Tarlov, qui peut maintenant être effectué en utilisant des méthodes différentes mais non sans possibles complications, ont donné des résultats contradictoires et souvent ne fournissent pas un avantage durable. La meilleure option de gestion doit être déterminée par la taille et l'emplacement des kystes du patient, ainsi que le niveau de compétences du chirurgien.
-Séquelles postopératoires
-Il est toujours délicat d'intervenir dans des zones de terminaisons nerveuses (risque d'incapacités neurologiques irréversibles). Il a été rapporté qu'un défaut de remplissage positive et la grande taille du kyste (&gt; 1,5 cm ou 0,6 pouce) est un bon indicateur de succès dans les résultats du traitement. Bien que la thérapie fibrine colle a été approuvé comme étant une thérapie prometteuse dans le traitement de ces kystes, il y a eu des cas où la fibrine infiltrée remontait dans la colonne vertébrale, en touchant d'autres nerfs. Son utilisation n'est pas recommandée à l'heure actuelle par le ministère de la Santé dans certains pays. Néanmoins, tous les types de traitements chirurgicaux présentent des risques communs, à savoir : les déficits neurologiques, l'infection et l'inflammation, des maux de tête, des troubles urinaires moelle, et la fuite de liquide cérébrospinal (LCS).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kyste_de_Tarlov</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kyste_de_Tarlov</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Séquelles postopératoires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est toujours délicat d'intervenir dans des zones de terminaisons nerveuses (risque d'incapacités neurologiques irréversibles). Il a été rapporté qu'un défaut de remplissage positive et la grande taille du kyste (&gt; 1,5 cm ou 0,6 pouce) est un bon indicateur de succès dans les résultats du traitement. Bien que la thérapie fibrine colle a été approuvé comme étant une thérapie prometteuse dans le traitement de ces kystes, il y a eu des cas où la fibrine infiltrée remontait dans la colonne vertébrale, en touchant d'autres nerfs. Son utilisation n'est pas recommandée à l'heure actuelle par le ministère de la Santé dans certains pays. Néanmoins, tous les types de traitements chirurgicaux présentent des risques communs, à savoir : les déficits neurologiques, l'infection et l'inflammation, des maux de tête, des troubles urinaires moelle, et la fuite de liquide cérébrospinal (LCS).
 </t>
         </is>
       </c>
